--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Sample</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>Model Index</t>
+  </si>
+  <si>
+    <t>polyfasc</t>
+  </si>
+  <si>
+    <t>Purdue</t>
   </si>
 </sst>
 </file>
@@ -105,12 +111,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -134,11 +146,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B27"/>
+  <dimension ref="A2:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,7 +445,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -439,7 +453,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -447,7 +461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,15 +469,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -471,7 +488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -479,10 +496,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -490,7 +507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -498,7 +515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -506,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -514,21 +531,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,7 +556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -544,7 +564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -552,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -560,10 +580,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -571,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -579,7 +599,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -587,22 +607,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="D24" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Sample</t>
   </si>
@@ -96,6 +96,18 @@
   </si>
   <si>
     <t>Purdue</t>
+  </si>
+  <si>
+    <t>Model 0</t>
+  </si>
+  <si>
+    <t>Model 1</t>
+  </si>
+  <si>
+    <t>CorTec 200</t>
+  </si>
+  <si>
+    <t>Model 2</t>
   </si>
 </sst>
 </file>
@@ -111,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,6 +133,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,13 +170,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D28"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,31 +471,42 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -480,64 +517,70 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -548,13 +591,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -563,6 +607,7 @@
       <c r="B17">
         <v>11</v>
       </c>
+      <c r="C17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -571,6 +616,7 @@
       <c r="B18">
         <v>12</v>
       </c>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -579,6 +625,7 @@
       <c r="B19">
         <v>13</v>
       </c>
+      <c r="C19" s="7"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -590,6 +637,7 @@
       <c r="B21">
         <v>14</v>
       </c>
+      <c r="C21" s="7"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -598,6 +646,7 @@
       <c r="B22">
         <v>15</v>
       </c>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -606,6 +655,7 @@
       <c r="B23">
         <v>16</v>
       </c>
+      <c r="C23" s="7"/>
     </row>
     <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
@@ -634,6 +684,14 @@
       </c>
       <c r="B28" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>Sample</t>
   </si>
@@ -108,6 +109,18 @@
   </si>
   <si>
     <t>Model 2</t>
+  </si>
+  <si>
+    <t>Model 3</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>MicroLeads</t>
+  </si>
+  <si>
+    <t>cuff too small</t>
   </si>
 </sst>
 </file>
@@ -123,7 +136,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -145,6 +158,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -179,6 +204,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +501,7 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -487,8 +517,11 @@
       <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -497,7 +530,7 @@
       </c>
       <c r="C3" s="7"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -505,19 +538,20 @@
         <v>1</v>
       </c>
       <c r="C4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="F4" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -526,7 +560,7 @@
       </c>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,10 +569,10 @@
       </c>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
@@ -547,7 +581,7 @@
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -556,7 +590,7 @@
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -565,7 +599,7 @@
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
@@ -574,13 +608,13 @@
       </c>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -591,7 +625,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -599,8 +633,11 @@
         <v>10</v>
       </c>
       <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -608,8 +645,11 @@
         <v>11</v>
       </c>
       <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
@@ -617,8 +657,11 @@
         <v>12</v>
       </c>
       <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
@@ -626,11 +669,15 @@
         <v>13</v>
       </c>
       <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -638,8 +685,13 @@
         <v>14</v>
       </c>
       <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21" s="7"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
@@ -647,8 +699,11 @@
         <v>15</v>
       </c>
       <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
@@ -656,8 +711,11 @@
         <v>16</v>
       </c>
       <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -668,17 +726,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -686,12 +744,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Sample</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Model Index</t>
   </si>
   <si>
-    <t>polyfasc</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>Model 1</t>
   </si>
   <si>
-    <t>CorTec 200</t>
-  </si>
-  <si>
     <t>Model 2</t>
   </si>
   <si>
@@ -121,6 +115,9 @@
   </si>
   <si>
     <t>cuff too small</t>
+  </si>
+  <si>
+    <t>CorTec 300</t>
   </si>
 </sst>
 </file>
@@ -491,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,16 +506,16 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -539,7 +536,7 @@
       </c>
       <c r="C4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -621,8 +618,9 @@
       <c r="B15" s="4">
         <v>9</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>22</v>
+      <c r="C15" s="7"/>
+      <c r="F15" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -688,7 +686,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="8"/>
       <c r="F21" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -722,9 +720,6 @@
       <c r="B24" s="4">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
@@ -741,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -762,7 +757,7 @@
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Sample</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>CorTec 300</t>
+  </si>
+  <si>
+    <t>COMING - Larger CorTec</t>
+  </si>
+  <si>
+    <t>mesh error</t>
   </si>
 </sst>
 </file>
@@ -166,7 +172,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -192,20 +198,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -488,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,10 +513,10 @@
       <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F2" t="s">
@@ -525,7 +530,8 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -534,19 +540,21 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="F4" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -555,7 +563,8 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -564,7 +573,8 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
@@ -576,7 +586,8 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -585,7 +596,8 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -594,7 +606,8 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="7"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -603,7 +616,8 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
@@ -611,15 +625,19 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="10">
         <v>9</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="F15" s="4" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -630,10 +648,10 @@
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="7"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -642,10 +660,10 @@
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -654,10 +672,10 @@
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="7"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -666,14 +684,16 @@
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="7"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="E20" s="8"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -682,10 +702,10 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="4" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -696,10 +716,10 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -708,16 +728,16 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>17</v>
       </c>
     </row>
@@ -750,6 +770,9 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Sample</t>
   </si>
@@ -114,16 +113,19 @@
     <t>MicroLeads</t>
   </si>
   <si>
-    <t>cuff too small</t>
-  </si>
-  <si>
     <t>CorTec 300</t>
   </si>
   <si>
     <t>COMING - Larger CorTec</t>
   </si>
   <si>
-    <t>mesh error</t>
+    <t>COMING - Larger MicroLeads</t>
+  </si>
+  <si>
+    <t>Model 4</t>
+  </si>
+  <si>
+    <t>WIP</t>
   </si>
 </sst>
 </file>
@@ -139,7 +141,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +172,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -198,19 +194,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,155 +498,160 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="8" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>9</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -660,10 +660,10 @@
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -672,10 +672,10 @@
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -684,16 +684,16 @@
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -702,12 +702,10 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -716,10 +714,10 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -728,17 +726,20 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="C23" s="5"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="9">
         <v>17</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,7 +765,7 @@
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -772,7 +773,7 @@
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -781,6 +782,14 @@
       </c>
       <c r="B31" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
   <si>
     <t>Sample</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Model 3</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>MicroLeads</t>
   </si>
   <si>
@@ -125,7 +122,19 @@
     <t>Model 4</t>
   </si>
   <si>
-    <t>WIP</t>
+    <t>today</t>
+  </si>
+  <si>
+    <t>CorTec300</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>MicroLeads500</t>
+  </si>
+  <si>
+    <t>MicroLeads400</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,7 +177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -194,18 +209,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -489,13 +507,15 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -518,7 +538,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -528,9 +548,15 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="3"/>
+      <c r="C3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -539,23 +565,33 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="3"/>
+      <c r="C5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -564,9 +600,15 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="3"/>
+      <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -575,12 +617,19 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="3"/>
+      <c r="C7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -589,9 +638,15 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -600,9 +655,15 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -611,9 +672,15 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -622,24 +689,39 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="3"/>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
+      <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -648,111 +730,150 @@
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="9"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="9"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="9"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="9"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="9"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C21" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="7">
         <v>17</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -760,36 +881,36 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -128,20 +128,20 @@
     <t>CorTec300</t>
   </si>
   <si>
-    <t>Today</t>
-  </si>
-  <si>
     <t>MicroLeads500</t>
   </si>
   <si>
     <t>MicroLeads400</t>
+  </si>
+  <si>
+    <t>MicroLeads300</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,19 +149,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,12 +178,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,21 +203,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,7 +500,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,19 +518,19 @@
       <c r="B2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -548,14 +541,14 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>35</v>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -565,31 +558,31 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="C4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>36</v>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F5"/>
     </row>
@@ -600,14 +593,14 @@
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>36</v>
+      <c r="C6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,19 +610,20 @@
       <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>35</v>
+      <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="D8" s="7"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -638,14 +632,14 @@
       <c r="B9">
         <v>5</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>34</v>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -655,14 +649,14 @@
       <c r="B10">
         <v>6</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>34</v>
+      <c r="C10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -672,14 +666,14 @@
       <c r="B11">
         <v>7</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>34</v>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -689,38 +683,38 @@
       <c r="B12">
         <v>8</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>34</v>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="D13" s="11"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:7" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="E15" t="s">
-        <v>32</v>
+      <c r="E15" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,14 +724,14 @@
       <c r="B16">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -747,14 +741,14 @@
       <c r="B17">
         <v>11</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>32</v>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -764,14 +758,14 @@
       <c r="B18">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s">
-        <v>32</v>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,19 +775,20 @@
       <c r="B19">
         <v>13</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" t="s">
-        <v>32</v>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -802,14 +797,14 @@
       <c r="B21">
         <v>14</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" t="s">
-        <v>32</v>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -819,14 +814,14 @@
       <c r="B22">
         <v>15</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" t="s">
-        <v>32</v>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -836,31 +831,31 @@
       <c r="B23">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="C23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>17</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>32</v>
       </c>
-      <c r="E24" t="s">
-        <v>32</v>
+      <c r="E24" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -915,5 +910,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
   <si>
     <t>Sample</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t>Model 4</t>
-  </si>
-  <si>
-    <t>today</t>
   </si>
   <si>
     <t>CorTec300</t>
@@ -156,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -212,11 +215,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,7 +504,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,11 +548,11 @@
       <c r="C3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,11 +565,11 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>33</v>
+      <c r="D4" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -578,11 +582,11 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>33</v>
+      <c r="D5" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5"/>
     </row>
@@ -596,11 +600,11 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>33</v>
+      <c r="D6" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -613,11 +617,11 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -635,11 +639,11 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>33</v>
+      <c r="D9" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,11 +656,11 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>33</v>
+      <c r="D10" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -669,11 +673,11 @@
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>33</v>
+      <c r="D11" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,16 +690,16 @@
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>33</v>
+      <c r="D12" s="8" t="s">
+        <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="10"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -710,11 +714,11 @@
       <c r="C15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>35</v>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -728,10 +732,10 @@
         <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -745,10 +749,10 @@
         <v>22</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -762,10 +766,10 @@
         <v>22</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -779,10 +783,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -801,10 +805,10 @@
         <v>22</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -818,10 +822,10 @@
         <v>22</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -835,14 +839,14 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="6">
@@ -851,11 +855,11 @@
       <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -220,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,7 +504,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -206,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -220,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +511,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,13 +552,13 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>33</v>
       </c>
     </row>
@@ -717,7 +724,7 @@
       <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="12" t="s">
         <v>34</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -174,12 +174,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -187,6 +181,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,13 +221,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,7 +511,7 @@
   <dimension ref="A2:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C24" sqref="C24:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,13 +552,13 @@
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -572,7 +572,7 @@
       <c r="C4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -589,7 +589,7 @@
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -607,7 +607,7 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -624,7 +624,7 @@
       <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -646,7 +646,7 @@
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -663,7 +663,7 @@
       <c r="C10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -680,7 +680,7 @@
       <c r="C11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -697,7 +697,7 @@
       <c r="C12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -706,7 +706,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
@@ -718,10 +718,10 @@
       <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="4" t="s">
+      <c r="C15" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -853,19 +853,19 @@
       </c>
     </row>
     <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B24" s="6">
         <v>17</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="4" t="s">
+      <c r="C24" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="11" t="s">
         <v>34</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="82">
   <si>
     <t>Sample</t>
   </si>
@@ -132,6 +132,144 @@
   </si>
   <si>
     <t>MicroLeads300</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Rat</t>
+  </si>
+  <si>
+    <t>Cervical</t>
+  </si>
+  <si>
+    <t>Abdominal</t>
+  </si>
+  <si>
+    <t>Cadaver</t>
+  </si>
+  <si>
+    <t>54-3</t>
+  </si>
+  <si>
+    <t>55-3</t>
+  </si>
+  <si>
+    <t>57-3</t>
+  </si>
+  <si>
+    <t>53-2</t>
+  </si>
+  <si>
+    <t>50-2</t>
+  </si>
+  <si>
+    <t>47-2</t>
+  </si>
+  <si>
+    <t>58-3</t>
+  </si>
+  <si>
+    <t>56-3</t>
+  </si>
+  <si>
+    <t>46-2</t>
+  </si>
+  <si>
+    <t>70-1</t>
+  </si>
+  <si>
+    <t>69-1</t>
+  </si>
+  <si>
+    <t>64-1</t>
+  </si>
+  <si>
+    <t>57-1</t>
+  </si>
+  <si>
+    <t>54-2</t>
+  </si>
+  <si>
+    <t>63-1</t>
+  </si>
+  <si>
+    <t>56-1</t>
+  </si>
+  <si>
+    <t>65-1</t>
+  </si>
+  <si>
+    <t>58-1</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>13-1</t>
+  </si>
+  <si>
+    <t>11-1</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>14-2</t>
+  </si>
+  <si>
+    <t>15-2</t>
+  </si>
+  <si>
+    <t>13-3</t>
+  </si>
+  <si>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>12-3</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>8-1</t>
+  </si>
+  <si>
+    <t>10-1</t>
+  </si>
+  <si>
+    <t>14-3</t>
+  </si>
+  <si>
+    <t>15-3</t>
   </si>
 </sst>
 </file>
@@ -191,18 +329,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -212,22 +341,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,416 +636,1180 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:E24"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="D3">
         <v>0</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="O3" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="D4">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="E5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="H5"/>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q5"/>
+      <c r="R5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="D9">
         <v>5</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="D10">
         <v>6</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
+      <c r="E10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="12"/>
+    </row>
+    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="6">
+      <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="11" t="s">
+      <c r="E14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B16">
+      <c r="D15">
         <v>10</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="E15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="G15" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B17">
+      <c r="D16">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="E16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="G16" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B18">
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
+      <c r="E17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B19">
+      <c r="D18">
         <v>13</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="G18" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="C20" s="6"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="E19" s="4"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B21">
+      <c r="D20">
         <v>14</v>
       </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="G20" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B22">
+      <c r="D21">
         <v>15</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="E21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="G21" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B23">
+      <c r="D22">
         <v>16</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="4" t="s">
+      <c r="E22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="G22" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="6">
+      <c r="D23" s="4">
         <v>17</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="11" t="s">
+      <c r="E23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="G23" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26">
+        <v>19</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>1</v>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>41</v>
       </c>
       <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31">
+        <v>23</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32">
+        <v>24</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36">
+        <v>27</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>4</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39">
         <v>30</v>
       </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40">
+        <v>31</v>
+      </c>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42">
+        <v>32</v>
+      </c>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43">
+        <v>33</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44">
+        <v>34</v>
+      </c>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>35</v>
+      </c>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D47">
+        <v>36</v>
+      </c>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48">
+        <v>37</v>
+      </c>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>38</v>
+      </c>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D51">
+        <v>39</v>
+      </c>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>40</v>
+      </c>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53">
+        <v>41</v>
+      </c>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54">
+        <v>42</v>
+      </c>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55">
+        <v>43</v>
+      </c>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56">
+        <v>44</v>
+      </c>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57">
+        <v>45</v>
+      </c>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58">
+        <v>46</v>
+      </c>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D59">
+        <v>47</v>
+      </c>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61">
+        <v>48</v>
+      </c>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62">
+        <v>49</v>
+      </c>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63">
+        <v>50</v>
+      </c>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>40</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65">
+        <v>51</v>
+      </c>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66">
+        <v>52</v>
+      </c>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>60</v>
+      </c>
+      <c r="B67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67">
+        <v>53</v>
+      </c>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68">
+        <v>54</v>
+      </c>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>60</v>
+      </c>
+      <c r="B69" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69">
+        <v>55</v>
+      </c>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70">
+        <v>56</v>
+      </c>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>60</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D71">
+        <v>57</v>
+      </c>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D72">
+        <v>58</v>
+      </c>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>60</v>
+      </c>
+      <c r="B73" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D73">
+        <v>59</v>
+      </c>
+      <c r="E73" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
   <si>
     <t>Sample</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>15-3</t>
+  </si>
+  <si>
+    <t>use 400</t>
   </si>
 </sst>
 </file>
@@ -638,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +709,9 @@
       <c r="G3" s="7" t="s">
         <v>33</v>
       </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
       <c r="O3" s="1" t="s">
         <v>21</v>
       </c>
@@ -732,6 +738,9 @@
       <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L4" t="s">
+        <v>82</v>
+      </c>
       <c r="O4">
         <v>0</v>
       </c>
@@ -762,6 +771,9 @@
         <v>34</v>
       </c>
       <c r="H5"/>
+      <c r="L5" t="s">
+        <v>82</v>
+      </c>
       <c r="O5">
         <v>1</v>
       </c>
@@ -793,6 +805,9 @@
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
       <c r="O6">
         <v>2</v>
       </c>
@@ -821,6 +836,9 @@
       </c>
       <c r="G7" s="3" t="s">
         <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>82</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -863,6 +881,9 @@
       <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L9" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -886,6 +907,9 @@
       <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L10" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -909,6 +933,9 @@
       <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -932,6 +959,9 @@
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="L12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13" s="13"/>
@@ -959,6 +989,7 @@
       <c r="G14" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="L14"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1006,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1029,7 +1060,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1052,13 +1083,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="E19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -1081,7 +1112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1104,7 +1135,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1127,7 +1158,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1149,8 +1180,9 @@
       <c r="G23" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1166,7 +1198,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -1182,7 +1214,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1231,7 @@
       <c r="F27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1215,7 +1247,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -1231,10 +1263,10 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1250,7 +1282,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -272,14 +272,14 @@
     <t>15-3</t>
   </si>
   <si>
-    <t>use 400</t>
+    <t>CorTec400</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +289,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -359,6 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +650,7 @@
   <dimension ref="A2:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,8 +659,10 @@
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -700,16 +710,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L3" t="s">
+      <c r="H3" s="3" t="s">
         <v>82</v>
       </c>
       <c r="O3" s="1" t="s">
@@ -738,7 +748,7 @@
       <c r="G4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="H4" s="3" t="s">
         <v>82</v>
       </c>
       <c r="O4">
@@ -770,10 +780,10 @@
       <c r="G5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H5"/>
-      <c r="L5" t="s">
+      <c r="H5" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="L5"/>
       <c r="O5">
         <v>1</v>
       </c>
@@ -805,7 +815,7 @@
       <c r="G6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L6" t="s">
+      <c r="H6" s="3" t="s">
         <v>82</v>
       </c>
       <c r="O6">
@@ -837,7 +847,7 @@
       <c r="G7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L7" t="s">
+      <c r="H7" s="3" t="s">
         <v>82</v>
       </c>
       <c r="O7">
@@ -857,6 +867,7 @@
       <c r="C8" s="12"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="14"/>
       <c r="O8">
         <v>4</v>
       </c>
@@ -881,7 +892,7 @@
       <c r="G9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L9" t="s">
+      <c r="H9" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -907,7 +918,7 @@
       <c r="G10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L10" t="s">
+      <c r="H10" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -933,7 +944,7 @@
       <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L11" t="s">
+      <c r="H11" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -959,7 +970,7 @@
       <c r="G12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="L12" t="s">
+      <c r="H12" s="3" t="s">
         <v>82</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
   <si>
     <t>Sample</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>CorTec400</t>
+  </si>
+  <si>
+    <t>Model 5</t>
+  </si>
+  <si>
+    <t>Model 6</t>
+  </si>
+  <si>
+    <t>Activation</t>
+  </si>
+  <si>
+    <t>Block - 20 kHz</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -301,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,18 +332,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,16 +360,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R73"/>
+  <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +670,19 @@
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E1" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="J1" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
@@ -690,8 +708,15 @@
       <c r="H2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>20</v>
@@ -701,10 +726,10 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D3">
@@ -713,7 +738,7 @@
       <c r="E3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -721,6 +746,9 @@
       </c>
       <c r="H3" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>21</v>
@@ -730,10 +758,10 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="D4">
@@ -742,7 +770,7 @@
       <c r="E4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -750,6 +778,9 @@
       </c>
       <c r="H4" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -762,10 +793,10 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="4">
@@ -774,7 +805,7 @@
       <c r="E5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -782,6 +813,9 @@
       </c>
       <c r="H5" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="L5"/>
       <c r="O5">
@@ -797,10 +831,10 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D6">
@@ -809,7 +843,7 @@
       <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -817,6 +851,9 @@
       </c>
       <c r="H6" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="O6">
         <v>2</v>
@@ -829,10 +866,10 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
       <c r="D7">
@@ -841,7 +878,7 @@
       <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -849,6 +886,9 @@
       </c>
       <c r="H7" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="O7">
         <v>3</v>
@@ -861,13 +901,14 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="J8" s="4"/>
       <c r="O8">
         <v>4</v>
       </c>
@@ -876,8 +917,8 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>6</v>
       </c>
       <c r="D9">
@@ -886,7 +927,7 @@
       <c r="E9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -894,16 +935,19 @@
       </c>
       <c r="H9" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D10">
@@ -912,7 +956,7 @@
       <c r="E10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -920,16 +964,19 @@
       </c>
       <c r="H10" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="12" t="s">
+      <c r="B11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D11">
@@ -938,7 +985,7 @@
       <c r="E11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
@@ -946,16 +993,19 @@
       </c>
       <c r="H11" s="3" t="s">
         <v>82</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D12">
@@ -964,7 +1014,7 @@
       <c r="E12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -973,200 +1023,236 @@
       <c r="H12" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="J12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="4">
         <v>9</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="J14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L14"/>
+      <c r="N14" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="10"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
       <c r="G19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>17</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -1176,20 +1262,23 @@
       <c r="B23" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="4">
         <v>17</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="8" t="s">
+      <c r="E23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="6" t="s">
         <v>34</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="L23"/>
     </row>
@@ -1507,7 +1596,7 @@
       <c r="B48" t="s">
         <v>39</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D48">
@@ -1522,7 +1611,7 @@
       <c r="B49" t="s">
         <v>39</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D49">
@@ -1540,7 +1629,7 @@
       <c r="B51" t="s">
         <v>39</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D51">
@@ -1555,7 +1644,7 @@
       <c r="B52" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D52">
@@ -1570,7 +1659,7 @@
       <c r="B53" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="9" t="s">
         <v>66</v>
       </c>
       <c r="D53">
@@ -1585,7 +1674,7 @@
       <c r="B54" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D54">
@@ -1600,7 +1689,7 @@
       <c r="B55" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C55" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D55">
@@ -1615,7 +1704,7 @@
       <c r="B56" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D56">
@@ -1630,7 +1719,7 @@
       <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D57">
@@ -1645,7 +1734,7 @@
       <c r="B58" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="9" t="s">
         <v>71</v>
       </c>
       <c r="D58">
@@ -1660,7 +1749,7 @@
       <c r="B59" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D59">
@@ -1693,7 +1782,7 @@
       <c r="B62" t="s">
         <v>40</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C62" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D62">
@@ -1708,7 +1797,7 @@
       <c r="B63" t="s">
         <v>40</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C63" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D63">
@@ -1726,7 +1815,7 @@
       <c r="B65" t="s">
         <v>40</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" s="9" t="s">
         <v>76</v>
       </c>
       <c r="D65">
@@ -1741,7 +1830,7 @@
       <c r="B66" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D66">
@@ -1756,7 +1845,7 @@
       <c r="B67" t="s">
         <v>40</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D67">
@@ -1771,7 +1860,7 @@
       <c r="B68" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" s="9" t="s">
         <v>79</v>
       </c>
       <c r="D68">
@@ -1786,7 +1875,7 @@
       <c r="B69" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D69">
@@ -1801,7 +1890,7 @@
       <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" s="9" t="s">
         <v>75</v>
       </c>
       <c r="D70">
@@ -1816,7 +1905,7 @@
       <c r="B71" t="s">
         <v>40</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="D71">
@@ -1831,7 +1920,7 @@
       <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" s="9" t="s">
         <v>80</v>
       </c>
       <c r="D72">
@@ -1846,7 +1935,7 @@
       <c r="B73" t="s">
         <v>40</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D73">
@@ -1855,6 +1944,10 @@
       <c r="E73" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="J1:L1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="81">
   <si>
     <t>Sample</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Sample Index</t>
   </si>
   <si>
-    <t>Cuff Comparison</t>
-  </si>
-  <si>
-    <t>Model Index</t>
-  </si>
-  <si>
     <t>Purdue</t>
   </si>
   <si>
@@ -107,18 +101,6 @@
     <t>Model 3</t>
   </si>
   <si>
-    <t>MicroLeads</t>
-  </si>
-  <si>
-    <t>CorTec 300</t>
-  </si>
-  <si>
-    <t>COMING - Larger CorTec</t>
-  </si>
-  <si>
-    <t>COMING - Larger MicroLeads</t>
-  </si>
-  <si>
     <t>Model 4</t>
   </si>
   <si>
@@ -285,9 +267,6 @@
   </si>
   <si>
     <t>Block - 20 kHz</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -316,7 +295,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,12 +305,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,11 +331,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -372,6 +344,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,7 +628,7 @@
   <dimension ref="A1:R73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,27 +641,28 @@
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="E1" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -697,1251 +671,1335 @@
         <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5"/>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="L5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5"/>
+      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6">
-        <v>2</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7">
-        <v>3</v>
-      </c>
-      <c r="P7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>27</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="E8" s="3"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="12"/>
-      <c r="J8" s="4"/>
-      <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="11"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="11"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D12">
         <v>8</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="E13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14"/>
-      <c r="N14" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="O14" s="4">
-        <v>3</v>
-      </c>
+      <c r="E14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="D15">
         <v>10</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>22</v>
+      <c r="E15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="D16">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>22</v>
+      <c r="E16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17">
         <v>12</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>22</v>
+      <c r="E17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>14</v>
       </c>
       <c r="D18">
         <v>13</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>22</v>
+      <c r="E18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="J18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="11"/>
-      <c r="C19" s="10"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>15</v>
       </c>
       <c r="D20">
         <v>14</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>22</v>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>16</v>
       </c>
       <c r="D21">
         <v>15</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>22</v>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D22">
         <v>16</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" s="6" t="s">
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
-      <c r="G22" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
       <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>17</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L23"/>
+      <c r="E23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>18</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D26">
         <v>19</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D27">
         <v>20</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="I27" s="4"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="D28">
         <v>21</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D29">
         <v>22</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="4"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
         <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" t="s">
-        <v>47</v>
       </c>
       <c r="D31">
         <v>23</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D32">
         <v>24</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D33">
         <v>25</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D34">
         <v>26</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="4"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D36">
         <v>27</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D37">
         <v>28</v>
       </c>
-      <c r="E37" s="4"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D38">
         <v>29</v>
       </c>
-      <c r="E38" s="4"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>30</v>
       </c>
-      <c r="E39" s="4"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D40">
         <v>31</v>
       </c>
-      <c r="E40" s="4"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="4"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D42">
         <v>32</v>
       </c>
-      <c r="E42" s="4"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D43">
         <v>33</v>
       </c>
-      <c r="E43" s="4"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D44">
         <v>34</v>
       </c>
-      <c r="E44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D45">
         <v>35</v>
       </c>
-      <c r="E45" s="4"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="4"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B47" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>36</v>
       </c>
-      <c r="E47" s="4"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>62</v>
+        <v>33</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D48">
         <v>37</v>
       </c>
-      <c r="E48" s="4"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>63</v>
+        <v>33</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>57</v>
       </c>
       <c r="D49">
         <v>38</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="4"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>64</v>
+        <v>33</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D51">
         <v>39</v>
       </c>
-      <c r="E51" s="4"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>65</v>
+        <v>33</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D52">
         <v>40</v>
       </c>
-      <c r="E52" s="4"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>60</v>
-      </c>
-      <c r="B53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>66</v>
       </c>
       <c r="D53">
         <v>41</v>
       </c>
-      <c r="E53" s="4"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>67</v>
+        <v>33</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="D54">
         <v>42</v>
       </c>
-      <c r="E54" s="4"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>68</v>
+        <v>33</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="D55">
         <v>43</v>
       </c>
-      <c r="E55" s="4"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="9" t="s">
-        <v>69</v>
+        <v>33</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="D56">
         <v>44</v>
       </c>
-      <c r="E56" s="4"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>70</v>
+        <v>33</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D57">
         <v>45</v>
       </c>
-      <c r="E57" s="4"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>71</v>
+        <v>33</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="D58">
         <v>46</v>
       </c>
-      <c r="E58" s="4"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="9" t="s">
-        <v>72</v>
+        <v>33</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>66</v>
       </c>
       <c r="D59">
         <v>47</v>
       </c>
-      <c r="E59" s="4"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="4"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D61">
         <v>48</v>
       </c>
-      <c r="E61" s="4"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="D62">
         <v>49</v>
       </c>
-      <c r="E62" s="4"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="D63">
         <v>50</v>
       </c>
-      <c r="E63" s="4"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="4"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
-      </c>
-      <c r="C65" s="9" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="D65">
         <v>51</v>
       </c>
-      <c r="E65" s="4"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C66" s="9" t="s">
-        <v>77</v>
+        <v>34</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="D66">
         <v>52</v>
       </c>
-      <c r="E66" s="4"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>78</v>
+        <v>34</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D67">
         <v>53</v>
       </c>
-      <c r="E67" s="4"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>79</v>
+        <v>34</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="D68">
         <v>54</v>
       </c>
-      <c r="E68" s="4"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="9" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="D69">
         <v>55</v>
       </c>
-      <c r="E69" s="4"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="D70">
         <v>56</v>
       </c>
-      <c r="E70" s="4"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="9" t="s">
-        <v>73</v>
+        <v>34</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D71">
         <v>57</v>
       </c>
-      <c r="E71" s="4"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C72" s="9" t="s">
-        <v>80</v>
+        <v>34</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D72">
         <v>58</v>
       </c>
-      <c r="E72" s="4"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
-      </c>
-      <c r="C73" s="9" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="D73">
         <v>59</v>
       </c>
-      <c r="E73" s="4"/>
+      <c r="E73" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
   <si>
     <t>Sample</t>
   </si>
@@ -267,6 +267,12 @@
   </si>
   <si>
     <t>Block - 20 kHz</t>
+  </si>
+  <si>
+    <t>MadisonP191205</t>
+  </si>
+  <si>
+    <t>191205-0</t>
   </si>
 </sst>
 </file>
@@ -340,11 +346,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -625,1386 +631,1404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R73"/>
+  <dimension ref="A1:S75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="E1" s="12" t="s">
+    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="F1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="J1" s="12" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="K1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+    </row>
+    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="S5"/>
+    </row>
+    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="3" t="s">
+      <c r="F7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="J8" s="3"/>
+      <c r="C8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="11"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="L8" s="3"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="10"/>
+      <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>5</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="I10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>8</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="3" t="s">
+      <c r="F12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="I12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="10"/>
-      <c r="C13" s="9"/>
-      <c r="E13" s="3"/>
-      <c r="G13" s="3"/>
+    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="F13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="I13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="J15" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="K15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>11</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="J16" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I16" s="3"/>
       <c r="K16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>12</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F17" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="J17" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I17" s="3"/>
       <c r="K17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="J18" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="K18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="10"/>
-      <c r="C19" s="9"/>
-      <c r="E19" s="3"/>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F20" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="J20" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I20" s="3"/>
       <c r="K20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>15</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F21" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="J21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I21" s="3"/>
       <c r="K21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>16</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="J22" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="I22" s="3"/>
       <c r="K22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="B23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="E23" s="3">
         <v>17</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="F23" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="K23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>18</v>
       </c>
-      <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>19</v>
       </c>
-      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>35</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3"/>
+      <c r="E27">
+        <v>20</v>
+      </c>
       <c r="F27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="G27" s="3"/>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>21</v>
       </c>
-      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>35</v>
       </c>
-      <c r="B29" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>22</v>
       </c>
-      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
         <v>35</v>
       </c>
-      <c r="B31" t="s">
-        <v>33</v>
-      </c>
       <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>23</v>
       </c>
-      <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
       <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>24</v>
       </c>
-      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>35</v>
       </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
       <c r="C33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>25</v>
       </c>
-      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>33</v>
-      </c>
       <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="D34">
-        <v>26</v>
-      </c>
-      <c r="E34" s="3"/>
+      <c r="E34">
+        <v>26</v>
+      </c>
       <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
       <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>27</v>
       </c>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
-        <v>34</v>
-      </c>
       <c r="C37" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>28</v>
       </c>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>34</v>
-      </c>
       <c r="C38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>29</v>
       </c>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>35</v>
       </c>
-      <c r="B39" t="s">
-        <v>34</v>
-      </c>
       <c r="C39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>30</v>
       </c>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>35</v>
       </c>
-      <c r="B40" t="s">
-        <v>34</v>
-      </c>
       <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>31</v>
       </c>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>35</v>
       </c>
-      <c r="B42" t="s">
-        <v>34</v>
-      </c>
       <c r="C42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" t="s">
         <v>50</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>32</v>
       </c>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
       <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
         <v>51</v>
       </c>
-      <c r="D43">
-        <v>33</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="E43">
+        <v>33</v>
+      </c>
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
-      <c r="B44" t="s">
-        <v>34</v>
-      </c>
       <c r="C44" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="D44">
-        <v>34</v>
-      </c>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="E44">
+        <v>34</v>
+      </c>
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>35</v>
       </c>
-      <c r="B45" t="s">
-        <v>34</v>
-      </c>
       <c r="C45" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>35</v>
       </c>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>54</v>
-      </c>
+      <c r="F45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>36</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>54</v>
-      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>37</v>
       </c>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>54</v>
-      </c>
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>38</v>
       </c>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>39</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>54</v>
-      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>40</v>
       </c>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>41</v>
       </c>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>54</v>
-      </c>
+      <c r="F53" s="3"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>42</v>
       </c>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>43</v>
       </c>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D56" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>44</v>
       </c>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>54</v>
-      </c>
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
+      </c>
+      <c r="D57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>45</v>
       </c>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>54</v>
-      </c>
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>46</v>
       </c>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>47</v>
       </c>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>54</v>
-      </c>
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D61" t="s">
         <v>67</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>48</v>
       </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>54</v>
-      </c>
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>34</v>
-      </c>
-      <c r="C62" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" t="s">
+        <v>34</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>49</v>
       </c>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>54</v>
-      </c>
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C63" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>50</v>
       </c>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>54</v>
-      </c>
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>51</v>
       </c>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>54</v>
-      </c>
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" t="s">
+        <v>34</v>
+      </c>
+      <c r="D66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>52</v>
       </c>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>54</v>
-      </c>
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>53</v>
       </c>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>54</v>
-      </c>
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" t="s">
+        <v>34</v>
+      </c>
+      <c r="D68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D68">
-        <v>54</v>
-      </c>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>54</v>
-      </c>
+      <c r="E68">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>34</v>
-      </c>
-      <c r="C69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>55</v>
       </c>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>54</v>
-      </c>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" t="s">
+        <v>34</v>
+      </c>
+      <c r="D70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>56</v>
       </c>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>54</v>
-      </c>
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" t="s">
+        <v>34</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>57</v>
       </c>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>54</v>
-      </c>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C72" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>58</v>
       </c>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>54</v>
-      </c>
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>34</v>
-      </c>
-      <c r="C73" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>59</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="88">
   <si>
     <t>Sample</t>
   </si>
@@ -273,6 +273,21 @@
   </si>
   <si>
     <t>191205-0</t>
+  </si>
+  <si>
+    <t>Special</t>
+  </si>
+  <si>
+    <t>2019 Segmentation</t>
+  </si>
+  <si>
+    <t>20% Shrink</t>
+  </si>
+  <si>
+    <t>0% Shrink</t>
+  </si>
+  <si>
+    <t>2020 Segmentation</t>
   </si>
 </sst>
 </file>
@@ -301,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +335,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -333,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -351,6 +372,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S75"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,28 +666,29 @@
     <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F1" s="14" t="s">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="G1" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="14"/>
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
-      <c r="K1" s="14" t="s">
+      <c r="J1" s="14"/>
+      <c r="L1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="14"/>
       <c r="M1" s="14"/>
-    </row>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -674,680 +698,739 @@
       <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P2" s="1"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P3" s="1"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>32</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
       <c r="S5"/>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="T5"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>32</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6">
         <v>3</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7">
         <v>4</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>33</v>
-      </c>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C8" s="10"/>
       <c r="D8" s="9"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="11"/>
-      <c r="K8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="11"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="M8" s="3"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="J9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11">
         <v>7</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
-      <c r="F13" s="3"/>
-      <c r="H13" s="3"/>
+      <c r="E13" s="4"/>
+      <c r="G13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3">
         <v>9</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="P14" s="12"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15">
         <v>10</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G15" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J15" s="3"/>
       <c r="L15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J16" s="3"/>
       <c r="L16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17">
         <v>12</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J17" s="3"/>
       <c r="L17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>32</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18">
         <v>13</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J18" s="3"/>
       <c r="L18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
-      <c r="F19" s="3"/>
+      <c r="E19" s="4"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20">
         <v>14</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G20" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="3"/>
-      <c r="K20" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J20" s="3"/>
       <c r="L20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21">
         <v>15</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="3"/>
-      <c r="K21" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J21" s="3"/>
       <c r="L21" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
         <v>16</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I22" s="3"/>
-      <c r="K22" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="J22" s="3"/>
       <c r="L22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="3">
         <v>17</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G23" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="L23" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1357,13 +1440,14 @@
       <c r="D25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="1"/>
+      <c r="F25">
         <v>18</v>
       </c>
-      <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1373,13 +1457,14 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="1"/>
+      <c r="F26">
         <v>19</v>
       </c>
-      <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1389,14 +1474,15 @@
       <c r="D27" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="F27" s="3"/>
+      <c r="E27" s="1"/>
+      <c r="F27">
+        <v>20</v>
+      </c>
       <c r="G27" s="3"/>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1406,13 +1492,14 @@
       <c r="D28" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="1"/>
+      <c r="F28">
         <v>21</v>
       </c>
-      <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -1422,16 +1509,17 @@
       <c r="D29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="1"/>
+      <c r="F29">
         <v>22</v>
       </c>
-      <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -1441,13 +1529,13 @@
       <c r="D31" t="s">
         <v>41</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>23</v>
       </c>
-      <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -1457,13 +1545,13 @@
       <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>24</v>
       </c>
-      <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>35</v>
       </c>
@@ -1473,13 +1561,13 @@
       <c r="D33" t="s">
         <v>43</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>25</v>
       </c>
-      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>35</v>
       </c>
@@ -1489,16 +1577,16 @@
       <c r="D34" t="s">
         <v>44</v>
       </c>
-      <c r="E34">
-        <v>26</v>
-      </c>
-      <c r="F34" s="3"/>
+      <c r="F34">
+        <v>26</v>
+      </c>
       <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>35</v>
       </c>
@@ -1508,12 +1596,12 @@
       <c r="D36" t="s">
         <v>45</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>27</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>35</v>
       </c>
@@ -1523,12 +1611,12 @@
       <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>28</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
@@ -1538,12 +1626,12 @@
       <c r="D38" t="s">
         <v>47</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>29</v>
       </c>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>35</v>
       </c>
@@ -1553,12 +1641,12 @@
       <c r="D39" t="s">
         <v>48</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>30</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>35</v>
       </c>
@@ -1568,15 +1656,15 @@
       <c r="D40" t="s">
         <v>49</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>31</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>35</v>
       </c>
@@ -1586,12 +1674,12 @@
       <c r="D42" t="s">
         <v>50</v>
       </c>
-      <c r="E42">
-        <v>32</v>
-      </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>32</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>35</v>
       </c>
@@ -1601,12 +1689,12 @@
       <c r="D43" t="s">
         <v>51</v>
       </c>
-      <c r="E43">
-        <v>33</v>
-      </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>33</v>
+      </c>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>35</v>
       </c>
@@ -1616,12 +1704,12 @@
       <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="E44">
-        <v>34</v>
-      </c>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>34</v>
+      </c>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>35</v>
       </c>
@@ -1631,15 +1719,15 @@
       <c r="D45" t="s">
         <v>53</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>35</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
@@ -1649,12 +1737,12 @@
       <c r="D47" t="s">
         <v>55</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>36</v>
       </c>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>54</v>
       </c>
@@ -1664,12 +1752,13 @@
       <c r="D48" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="12"/>
+      <c r="F48">
         <v>37</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -1679,15 +1768,16 @@
       <c r="D49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="16"/>
+      <c r="F49">
         <v>38</v>
       </c>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>54</v>
       </c>
@@ -1697,12 +1787,13 @@
       <c r="D51" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="16"/>
+      <c r="F51">
         <v>39</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>54</v>
       </c>
@@ -1712,12 +1803,13 @@
       <c r="D52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="16"/>
+      <c r="F52">
         <v>40</v>
       </c>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>54</v>
       </c>
@@ -1727,12 +1819,13 @@
       <c r="D53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="16"/>
+      <c r="F53">
         <v>41</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>54</v>
       </c>
@@ -1742,12 +1835,13 @@
       <c r="D54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="16"/>
+      <c r="F54">
         <v>42</v>
       </c>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>54</v>
       </c>
@@ -1757,12 +1851,13 @@
       <c r="D55" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="16"/>
+      <c r="F55">
         <v>43</v>
       </c>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>54</v>
       </c>
@@ -1772,12 +1867,13 @@
       <c r="D56" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="16"/>
+      <c r="F56">
         <v>44</v>
       </c>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>54</v>
       </c>
@@ -1787,12 +1883,13 @@
       <c r="D57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="16"/>
+      <c r="F57">
         <v>45</v>
       </c>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>54</v>
       </c>
@@ -1802,12 +1899,13 @@
       <c r="D58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="16"/>
+      <c r="F58">
         <v>46</v>
       </c>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>54</v>
       </c>
@@ -1817,15 +1915,16 @@
       <c r="D59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="16"/>
+      <c r="F59">
         <v>47</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>54</v>
       </c>
@@ -1835,12 +1934,12 @@
       <c r="D61" t="s">
         <v>67</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>48</v>
       </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>54</v>
       </c>
@@ -1850,12 +1949,13 @@
       <c r="D62" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="12"/>
+      <c r="F62">
         <v>49</v>
       </c>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>54</v>
       </c>
@@ -1865,15 +1965,16 @@
       <c r="D63" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="12"/>
+      <c r="F63">
         <v>50</v>
       </c>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>54</v>
       </c>
@@ -1883,12 +1984,13 @@
       <c r="D65" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="16"/>
+      <c r="F65">
         <v>51</v>
       </c>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>54</v>
       </c>
@@ -1898,12 +2000,13 @@
       <c r="D66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="16"/>
+      <c r="F66">
         <v>52</v>
       </c>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>54</v>
       </c>
@@ -1913,12 +2016,13 @@
       <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="16"/>
+      <c r="F67">
         <v>53</v>
       </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>54</v>
       </c>
@@ -1928,12 +2032,13 @@
       <c r="D68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E68">
-        <v>54</v>
-      </c>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="16"/>
+      <c r="F68">
+        <v>54</v>
+      </c>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>54</v>
       </c>
@@ -1943,12 +2048,13 @@
       <c r="D69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="16"/>
+      <c r="F69">
         <v>55</v>
       </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>54</v>
       </c>
@@ -1958,12 +2064,13 @@
       <c r="D70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="16"/>
+      <c r="F70">
         <v>56</v>
       </c>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>54</v>
       </c>
@@ -1973,12 +2080,13 @@
       <c r="D71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="16"/>
+      <c r="F71">
         <v>57</v>
       </c>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -1988,12 +2096,13 @@
       <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="16"/>
+      <c r="F72">
         <v>58</v>
       </c>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G72" s="3"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -2003,12 +2112,13 @@
       <c r="D73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="16"/>
+      <c r="F73">
         <v>59</v>
       </c>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G73" s="3"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2021,14 +2131,412 @@
       <c r="D75" t="s">
         <v>82</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75">
         <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>500</v>
+      </c>
+      <c r="B78" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>100</v>
+      </c>
+      <c r="B79" t="s">
+        <v>32</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F79">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>100</v>
+      </c>
+      <c r="B80" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F80" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>100</v>
+      </c>
+      <c r="B81" t="s">
+        <v>32</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>100</v>
+      </c>
+      <c r="B82" t="s">
+        <v>32</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C83" s="10"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>100</v>
+      </c>
+      <c r="B85" t="s">
+        <v>32</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85">
+        <v>68</v>
+      </c>
+      <c r="I85" s="3"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>100</v>
+      </c>
+      <c r="B86" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F86">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>100</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F87">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C88" s="10"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>100</v>
+      </c>
+      <c r="B89" t="s">
+        <v>32</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F89" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>100</v>
+      </c>
+      <c r="B90" t="s">
+        <v>32</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F90">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>100</v>
+      </c>
+      <c r="B91" t="s">
+        <v>32</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F91">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>100</v>
+      </c>
+      <c r="B92" t="s">
+        <v>32</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F92">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>100</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C94" s="10"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>100</v>
+      </c>
+      <c r="B95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F95">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>10</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F96">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>100</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F97">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>100</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F98" s="3">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="89">
   <si>
     <t>Sample</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>2020 Segmentation</t>
+  </si>
+  <si>
+    <t>Purdue cuff not fitting properly</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +344,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -354,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -374,6 +383,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H93" sqref="H93"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="K92" sqref="K92:K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -671,7 +681,7 @@
     <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1974,7 +1984,7 @@
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>54</v>
       </c>
@@ -1990,7 +2000,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>54</v>
       </c>
@@ -2006,7 +2016,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>54</v>
       </c>
@@ -2022,7 +2032,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>54</v>
       </c>
@@ -2038,7 +2048,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>54</v>
       </c>
@@ -2054,7 +2064,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>54</v>
       </c>
@@ -2070,7 +2080,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>54</v>
       </c>
@@ -2086,7 +2096,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -2102,7 +2112,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -2118,7 +2128,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2138,7 +2148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2158,7 +2168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>500</v>
       </c>
@@ -2177,8 +2187,20 @@
       <c r="F78">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100</v>
       </c>
@@ -2197,8 +2219,20 @@
       <c r="F79">
         <v>63</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100</v>
       </c>
@@ -2217,8 +2251,20 @@
       <c r="F80" s="3">
         <v>64</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>100</v>
       </c>
@@ -2237,8 +2283,20 @@
       <c r="F81">
         <v>65</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100</v>
       </c>
@@ -2257,12 +2315,28 @@
       <c r="F82">
         <v>66</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C83" s="10"/>
       <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="3"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>100</v>
       </c>
@@ -2281,8 +2355,20 @@
       <c r="F84">
         <v>67</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100</v>
       </c>
@@ -2301,9 +2387,20 @@
       <c r="F85">
         <v>68</v>
       </c>
-      <c r="I85" s="3"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
@@ -2322,8 +2419,20 @@
       <c r="F86">
         <v>69</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>100</v>
       </c>
@@ -2342,13 +2451,28 @@
       <c r="F87">
         <v>70</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C88" s="10"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>100</v>
       </c>
@@ -2367,8 +2491,18 @@
       <c r="F89" s="3">
         <v>71</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>100</v>
       </c>
@@ -2387,8 +2521,18 @@
       <c r="F90">
         <v>72</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J90" s="3"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
@@ -2404,11 +2548,21 @@
       <c r="E91" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="17">
         <v>73</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100</v>
       </c>
@@ -2424,11 +2578,26 @@
       <c r="E92" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="17">
         <v>74</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K92" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100</v>
       </c>
@@ -2447,13 +2616,29 @@
       <c r="F93">
         <v>75</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" s="17">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C94" s="10"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="3"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="K94" s="17"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>100</v>
       </c>
@@ -2472,8 +2657,20 @@
       <c r="F95">
         <v>76</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="17">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -2492,8 +2689,20 @@
       <c r="F96">
         <v>77</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" s="17">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100</v>
       </c>
@@ -2512,8 +2721,20 @@
       <c r="F97">
         <v>78</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K97" s="17">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100</v>
       </c>
@@ -2531,6 +2752,28 @@
       </c>
       <c r="F98" s="3">
         <v>79</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K98" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E103" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E104" s="3">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="94">
   <si>
     <t>Sample</t>
   </si>
@@ -291,6 +291,21 @@
   </si>
   <si>
     <t>Purdue cuff not fitting properly</t>
+  </si>
+  <si>
+    <t>nerve messed up</t>
+  </si>
+  <si>
+    <t>Purdue - nerve int elec</t>
+  </si>
+  <si>
+    <t>CorTec - nerve extending out of fill in same spot as purdue</t>
+  </si>
+  <si>
+    <t>MicroLeads 500 is good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CorTec 400 same issue</t>
   </si>
 </sst>
 </file>
@@ -363,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -383,7 +398,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="K92" sqref="K92:K98"/>
+    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2001,7 @@
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="G64" s="3"/>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>54</v>
       </c>
@@ -2000,7 +2017,7 @@
       </c>
       <c r="G65" s="3"/>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>54</v>
       </c>
@@ -2016,7 +2033,7 @@
       </c>
       <c r="G66" s="3"/>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>54</v>
       </c>
@@ -2032,7 +2049,7 @@
       </c>
       <c r="G67" s="3"/>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>54</v>
       </c>
@@ -2048,7 +2065,7 @@
       </c>
       <c r="G68" s="3"/>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>54</v>
       </c>
@@ -2064,7 +2081,7 @@
       </c>
       <c r="G69" s="3"/>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>54</v>
       </c>
@@ -2080,7 +2097,7 @@
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>54</v>
       </c>
@@ -2096,7 +2113,7 @@
       </c>
       <c r="G71" s="3"/>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>54</v>
       </c>
@@ -2112,7 +2129,7 @@
       </c>
       <c r="G72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>54</v>
       </c>
@@ -2128,7 +2145,7 @@
       </c>
       <c r="G73" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2148,7 +2165,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2168,7 +2185,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>500</v>
       </c>
@@ -2184,23 +2201,38 @@
       <c r="E78" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="18">
         <v>62</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="3" t="s">
+      <c r="G78" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>38</v>
+      </c>
+      <c r="L78" t="s">
+        <v>90</v>
+      </c>
+      <c r="M78" t="s">
+        <v>91</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100</v>
       </c>
@@ -2216,23 +2248,26 @@
       <c r="E79" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="17">
         <v>63</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="3" t="s">
+      <c r="G79" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100</v>
       </c>
@@ -2248,20 +2283,23 @@
       <c r="E80" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="17">
         <v>64</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="G80" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K80">
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -2280,20 +2318,23 @@
       <c r="E81" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="17">
         <v>65</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81" s="3" t="s">
+      <c r="G81" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K81">
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2312,27 +2353,30 @@
       <c r="E82" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="17">
         <v>66</v>
       </c>
-      <c r="G82" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="3" t="s">
+      <c r="G82" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K82">
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C83" s="10"/>
       <c r="D83" s="4"/>
       <c r="G83" s="3"/>
-      <c r="H83" s="2"/>
+      <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="11"/>
     </row>
@@ -2352,20 +2396,23 @@
       <c r="E84" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="17">
         <v>67</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="3" t="s">
+      <c r="G84" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K84">
+        <v>43</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -2384,20 +2431,23 @@
       <c r="E85" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="17">
         <v>68</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="G85" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K85">
+        <v>44</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
@@ -2416,20 +2466,23 @@
       <c r="E86" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="17">
         <v>69</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="3" t="s">
+      <c r="G86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K86">
+        <v>45</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
@@ -2448,20 +2501,23 @@
       <c r="E87" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="17">
         <v>70</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="3" t="s">
+      <c r="G87" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="17" t="s">
         <v>76</v>
+      </c>
+      <c r="K87">
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -2488,16 +2544,16 @@
       <c r="E89" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="17">
         <v>71</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="13" t="s">
+      <c r="G89" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="19" t="s">
         <v>28</v>
       </c>
       <c r="J89" s="3"/>
@@ -2518,16 +2574,16 @@
       <c r="E90" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="17">
         <v>72</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="3" t="s">
+      <c r="G90" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="17" t="s">
         <v>29</v>
       </c>
       <c r="J90" s="3"/>
@@ -2551,13 +2607,13 @@
       <c r="F91" s="17">
         <v>73</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="3" t="s">
+      <c r="G91" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="17" t="s">
         <v>29</v>
       </c>
       <c r="J91" s="3"/>
@@ -2578,22 +2634,22 @@
       <c r="E92" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="18">
         <v>74</v>
       </c>
-      <c r="G92" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="17" t="s">
+      <c r="G92" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J92" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K92" s="17">
+      <c r="K92" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2613,19 +2669,19 @@
       <c r="E93" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="17">
         <v>75</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="3" t="s">
+      <c r="G93" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="17">
+      <c r="K93" s="3">
         <v>51</v>
       </c>
     </row>
@@ -2636,7 +2692,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="K94" s="17"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2654,19 +2710,19 @@
       <c r="E95" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="17">
         <v>76</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="17">
+      <c r="G95" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="3">
         <v>52</v>
       </c>
     </row>
@@ -2686,23 +2742,23 @@
       <c r="E96" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="17">
         <v>77</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="3" t="s">
+      <c r="G96" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="17">
+      <c r="K96" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100</v>
       </c>
@@ -2718,23 +2774,23 @@
       <c r="E97" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="17">
         <v>78</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I97" s="3" t="s">
+      <c r="G97" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="K97" s="17">
+      <c r="K97" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100</v>
       </c>
@@ -2750,28 +2806,32 @@
       <c r="E98" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="3">
+      <c r="F98" s="18">
         <v>79</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K98" s="17">
+      <c r="G98" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18">
         <v>55</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L98" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E103" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E104" s="3">
         <v>55</v>
       </c>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="89">
   <si>
     <t>Sample</t>
   </si>
@@ -290,22 +290,7 @@
     <t>2020 Segmentation</t>
   </si>
   <si>
-    <t>Purdue cuff not fitting properly</t>
-  </si>
-  <si>
     <t>nerve messed up</t>
-  </si>
-  <si>
-    <t>Purdue - nerve int elec</t>
-  </si>
-  <si>
-    <t>CorTec - nerve extending out of fill in same spot as purdue</t>
-  </si>
-  <si>
-    <t>MicroLeads 500 is good</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CorTec 400 same issue</t>
   </si>
 </sst>
 </file>
@@ -334,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,6 +350,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -378,7 +369,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -401,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B63" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
+      <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2201,36 +2193,26 @@
       <c r="E78" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="18">
+      <c r="F78" s="17">
         <v>62</v>
       </c>
-      <c r="G78" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="18" t="s">
+      <c r="G78" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="18" t="s">
+      <c r="J78" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="20">
         <v>38</v>
       </c>
-      <c r="L78" t="s">
-        <v>90</v>
-      </c>
-      <c r="M78" t="s">
-        <v>91</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O78" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="N78" s="3"/>
+      <c r="O78" s="3"/>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2263,7 +2245,7 @@
       <c r="J79" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="20">
         <v>39</v>
       </c>
     </row>
@@ -2298,7 +2280,7 @@
       <c r="J80" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="20">
         <v>40</v>
       </c>
     </row>
@@ -2333,7 +2315,7 @@
       <c r="J81" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K81">
+      <c r="K81" s="20">
         <v>41</v>
       </c>
     </row>
@@ -2368,7 +2350,7 @@
       <c r="J82" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="20">
         <v>42</v>
       </c>
     </row>
@@ -2411,7 +2393,7 @@
       <c r="J84" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="20">
         <v>43</v>
       </c>
     </row>
@@ -2446,7 +2428,7 @@
       <c r="J85" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="20">
         <v>44</v>
       </c>
     </row>
@@ -2481,7 +2463,7 @@
       <c r="J86" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="20">
         <v>45</v>
       </c>
     </row>
@@ -2516,7 +2498,7 @@
       <c r="J87" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="20">
         <v>46</v>
       </c>
     </row>
@@ -2557,6 +2539,9 @@
         <v>28</v>
       </c>
       <c r="J89" s="3"/>
+      <c r="K89">
+        <v>47</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -2587,6 +2572,9 @@
         <v>29</v>
       </c>
       <c r="J90" s="3"/>
+      <c r="K90">
+        <v>48</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -2617,6 +2605,9 @@
         <v>29</v>
       </c>
       <c r="J91" s="3"/>
+      <c r="K91">
+        <v>49</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -2646,9 +2637,7 @@
       <c r="I92" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J92" s="18" t="s">
-        <v>88</v>
-      </c>
+      <c r="J92" s="3"/>
       <c r="K92" s="3">
         <v>50</v>
       </c>
@@ -2823,7 +2812,7 @@
         <v>55</v>
       </c>
       <c r="L98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="89">
   <si>
     <t>Sample</t>
   </si>
@@ -319,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,6 +356,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -369,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -384,15 +390,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T104"/>
+  <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" workbookViewId="0">
-      <selection activeCell="M91" sqref="M91"/>
+    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,17 +703,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="L1" s="14" t="s">
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="L1" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -754,7 +762,7 @@
       <c r="C3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -793,7 +801,7 @@
       <c r="C4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -831,7 +839,7 @@
       <c r="C5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -873,7 +881,7 @@
       <c r="C6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -911,7 +919,7 @@
       <c r="C7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -960,7 +968,7 @@
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -998,7 +1006,7 @@
       <c r="C10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1036,7 +1044,7 @@
       <c r="C11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1074,7 +1082,7 @@
       <c r="C12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1121,7 +1129,7 @@
       <c r="C14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1157,7 +1165,7 @@
       <c r="C15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="14" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1193,7 +1201,7 @@
       <c r="C16" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1229,7 +1237,7 @@
       <c r="C17" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1265,7 +1273,7 @@
       <c r="C18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1313,7 +1321,7 @@
       <c r="C20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1349,7 +1357,7 @@
       <c r="C21" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1385,7 +1393,7 @@
       <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1421,7 +1429,7 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1787,7 +1795,7 @@
       <c r="D49" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="16"/>
+      <c r="E49" s="15"/>
       <c r="F49">
         <v>38</v>
       </c>
@@ -1806,7 +1814,7 @@
       <c r="D51" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="16"/>
+      <c r="E51" s="15"/>
       <c r="F51">
         <v>39</v>
       </c>
@@ -1822,7 +1830,7 @@
       <c r="D52" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="15"/>
       <c r="F52">
         <v>40</v>
       </c>
@@ -1838,7 +1846,7 @@
       <c r="D53" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="16"/>
+      <c r="E53" s="15"/>
       <c r="F53">
         <v>41</v>
       </c>
@@ -1854,7 +1862,7 @@
       <c r="D54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="16"/>
+      <c r="E54" s="15"/>
       <c r="F54">
         <v>42</v>
       </c>
@@ -1870,7 +1878,7 @@
       <c r="D55" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="15"/>
       <c r="F55">
         <v>43</v>
       </c>
@@ -1886,7 +1894,7 @@
       <c r="D56" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="16"/>
+      <c r="E56" s="15"/>
       <c r="F56">
         <v>44</v>
       </c>
@@ -1902,7 +1910,7 @@
       <c r="D57" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="15"/>
       <c r="F57">
         <v>45</v>
       </c>
@@ -1918,7 +1926,7 @@
       <c r="D58" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="15"/>
       <c r="F58">
         <v>46</v>
       </c>
@@ -1934,7 +1942,7 @@
       <c r="D59" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="16"/>
+      <c r="E59" s="15"/>
       <c r="F59">
         <v>47</v>
       </c>
@@ -2003,7 +2011,7 @@
       <c r="D65" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="16"/>
+      <c r="E65" s="15"/>
       <c r="F65">
         <v>51</v>
       </c>
@@ -2019,7 +2027,7 @@
       <c r="D66" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="16"/>
+      <c r="E66" s="15"/>
       <c r="F66">
         <v>52</v>
       </c>
@@ -2035,7 +2043,7 @@
       <c r="D67" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="16"/>
+      <c r="E67" s="15"/>
       <c r="F67">
         <v>53</v>
       </c>
@@ -2051,7 +2059,7 @@
       <c r="D68" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="16"/>
+      <c r="E68" s="15"/>
       <c r="F68">
         <v>54</v>
       </c>
@@ -2067,7 +2075,7 @@
       <c r="D69" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E69" s="16"/>
+      <c r="E69" s="15"/>
       <c r="F69">
         <v>55</v>
       </c>
@@ -2083,7 +2091,7 @@
       <c r="D70" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="15"/>
       <c r="F70">
         <v>56</v>
       </c>
@@ -2099,7 +2107,7 @@
       <c r="D71" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="15"/>
       <c r="F71">
         <v>57</v>
       </c>
@@ -2115,7 +2123,7 @@
       <c r="D72" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E72" s="16"/>
+      <c r="E72" s="15"/>
       <c r="F72">
         <v>58</v>
       </c>
@@ -2131,7 +2139,7 @@
       <c r="D73" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E73" s="16"/>
+      <c r="E73" s="15"/>
       <c r="F73">
         <v>59</v>
       </c>
@@ -2187,28 +2195,28 @@
       <c r="C78" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E78" s="15" t="s">
+      <c r="E78" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="16">
         <v>62</v>
       </c>
-      <c r="G78" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="17" t="s">
+      <c r="G78" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J78" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K78" s="20">
+      <c r="J78" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K78" s="19">
         <v>38</v>
       </c>
       <c r="N78" s="3"/>
@@ -2224,28 +2232,28 @@
       <c r="C79" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D79" s="15" t="s">
+      <c r="D79" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E79" s="15" t="s">
+      <c r="E79" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="16">
         <v>63</v>
       </c>
-      <c r="G79" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K79" s="20">
+      <c r="G79" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J79" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K79" s="19">
         <v>39</v>
       </c>
     </row>
@@ -2259,32 +2267,32 @@
       <c r="C80" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D80" s="15" t="s">
+      <c r="D80" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="15" t="s">
+      <c r="E80" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <v>64</v>
       </c>
-      <c r="G80" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K80" s="20">
+      <c r="G80" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K80" s="19">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>100</v>
       </c>
@@ -2294,32 +2302,32 @@
       <c r="C81" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E81" s="15" t="s">
+      <c r="E81" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="16">
         <v>65</v>
       </c>
-      <c r="G81" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K81" s="20">
+      <c r="G81" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K81" s="19">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100</v>
       </c>
@@ -2329,40 +2337,41 @@
       <c r="C82" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D82" s="15" t="s">
+      <c r="D82" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E82" s="15" t="s">
+      <c r="E82" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="16">
         <v>66</v>
       </c>
-      <c r="G82" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="17" t="s">
+      <c r="G82" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="J82" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K82" s="20">
+      <c r="J82" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K82" s="19">
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C83" s="10"/>
       <c r="D83" s="4"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>100</v>
       </c>
@@ -2372,32 +2381,33 @@
       <c r="C84" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="15" t="s">
+      <c r="D84" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E84" s="15" t="s">
+      <c r="E84" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="16">
         <v>67</v>
       </c>
-      <c r="G84" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K84" s="20">
+      <c r="G84" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K84" s="19">
         <v>43</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100</v>
       </c>
@@ -2407,32 +2417,33 @@
       <c r="C85" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="16">
         <v>68</v>
       </c>
-      <c r="G85" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K85" s="20">
+      <c r="G85" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J85" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K85" s="19">
         <v>44</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100</v>
       </c>
@@ -2442,32 +2453,33 @@
       <c r="C86" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <v>69</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K86" s="20">
+      <c r="G86" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="19">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>100</v>
       </c>
@@ -2477,40 +2489,42 @@
       <c r="C87" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E87" s="15" t="s">
+      <c r="E87" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <v>70</v>
       </c>
-      <c r="G87" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K87" s="20">
+      <c r="G87" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J87" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K87" s="19">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C88" s="10"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="G88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>100</v>
       </c>
@@ -2520,30 +2534,32 @@
       <c r="C89" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D89" s="15" t="s">
+      <c r="D89" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E89" s="15" t="s">
+      <c r="E89" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <v>71</v>
       </c>
-      <c r="G89" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="3"/>
-      <c r="K89">
+      <c r="G89" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K89" s="3">
         <v>47</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>100</v>
       </c>
@@ -2553,30 +2569,30 @@
       <c r="C90" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D90" s="15" t="s">
+      <c r="D90" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="15" t="s">
+      <c r="E90" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="16">
         <v>72</v>
       </c>
-      <c r="G90" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="17" t="s">
+      <c r="G90" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J90" s="3"/>
-      <c r="K90">
+      <c r="K90" s="22">
         <v>48</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100</v>
       </c>
@@ -2586,30 +2602,30 @@
       <c r="C91" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D91" s="15" t="s">
+      <c r="D91" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="15" t="s">
+      <c r="E91" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <v>73</v>
       </c>
-      <c r="G91" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="17" t="s">
+      <c r="G91" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="16" t="s">
         <v>29</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91">
+      <c r="K91" s="22">
         <v>49</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100</v>
       </c>
@@ -2619,30 +2635,30 @@
       <c r="C92" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="15" t="s">
+      <c r="E92" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="18">
+      <c r="F92" s="16">
         <v>74</v>
       </c>
-      <c r="G92" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="18" t="s">
+      <c r="G92" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="16" t="s">
         <v>28</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="3">
+      <c r="K92" s="19">
         <v>50</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100</v>
       </c>
@@ -2652,38 +2668,38 @@
       <c r="C93" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <v>75</v>
       </c>
-      <c r="G93" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="17" t="s">
+      <c r="G93" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="19">
         <v>51</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C94" s="10"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K94" s="19"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>100</v>
       </c>
@@ -2693,29 +2709,29 @@
       <c r="C95" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="17">
-        <v>76</v>
-      </c>
-      <c r="G95" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="3">
+      <c r="F95" s="16">
+        <v>76</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="K95" s="19">
         <v>52</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>10</v>
       </c>
@@ -2725,25 +2741,25 @@
       <c r="C96" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D96" s="15" t="s">
+      <c r="D96" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E96" s="15" t="s">
+      <c r="E96" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <v>77</v>
       </c>
-      <c r="G96" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="17" t="s">
+      <c r="G96" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="19">
         <v>53</v>
       </c>
     </row>
@@ -2757,22 +2773,22 @@
       <c r="C97" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D97" s="15" t="s">
+      <c r="D97" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="15" t="s">
+      <c r="E97" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="16">
         <v>78</v>
       </c>
-      <c r="G97" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I97" s="17" t="s">
+      <c r="G97" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" s="16" t="s">
         <v>29</v>
       </c>
       <c r="K97" s="3">
@@ -2789,40 +2805,32 @@
       <c r="C98" t="s">
         <v>34</v>
       </c>
-      <c r="D98" s="15" t="s">
+      <c r="D98" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E98" s="15" t="s">
+      <c r="E98" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="18">
+      <c r="F98" s="17">
         <v>79</v>
       </c>
-      <c r="G98" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18">
+      <c r="G98" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" s="17">
         <v>55</v>
       </c>
       <c r="L98" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E103" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="E104" s="3">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -683,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E85" workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,7 +2791,7 @@
       <c r="I97" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="19">
         <v>54</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="88">
   <si>
     <t>Sample</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>2020 Segmentation</t>
-  </si>
-  <si>
-    <t>nerve messed up</t>
   </si>
 </sst>
 </file>
@@ -319,7 +316,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -344,24 +341,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -375,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -393,14 +372,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -683,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
+      <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,17 +678,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="L1" s="20" t="s">
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="L1" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -2216,7 +2191,7 @@
       <c r="J78" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="3">
         <v>38</v>
       </c>
       <c r="N78" s="3"/>
@@ -2253,7 +2228,7 @@
       <c r="J79" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K79" s="19">
+      <c r="K79" s="3">
         <v>39</v>
       </c>
     </row>
@@ -2288,7 +2263,7 @@
       <c r="J80" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="3">
         <v>40</v>
       </c>
     </row>
@@ -2323,7 +2298,7 @@
       <c r="J81" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K81" s="19">
+      <c r="K81" s="3">
         <v>41</v>
       </c>
     </row>
@@ -2358,7 +2333,7 @@
       <c r="J82" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K82" s="19">
+      <c r="K82" s="3">
         <v>42</v>
       </c>
     </row>
@@ -2402,7 +2377,7 @@
       <c r="J84" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K84" s="3">
         <v>43</v>
       </c>
       <c r="M84" s="3"/>
@@ -2438,7 +2413,7 @@
       <c r="J85" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K85" s="19">
+      <c r="K85" s="3">
         <v>44</v>
       </c>
       <c r="M85" s="3"/>
@@ -2474,7 +2449,7 @@
       <c r="J86" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K86" s="3">
         <v>45</v>
       </c>
       <c r="M86" s="3"/>
@@ -2510,7 +2485,7 @@
       <c r="J87" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K87" s="19">
+      <c r="K87" s="3">
         <v>46</v>
       </c>
       <c r="M87" s="3"/>
@@ -2549,10 +2524,10 @@
       <c r="H89" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="I89" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="21" t="s">
+      <c r="I89" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="16" t="s">
         <v>76</v>
       </c>
       <c r="K89" s="3">
@@ -2588,7 +2563,7 @@
         <v>29</v>
       </c>
       <c r="J90" s="3"/>
-      <c r="K90" s="22">
+      <c r="K90" s="13">
         <v>48</v>
       </c>
     </row>
@@ -2621,7 +2596,7 @@
         <v>29</v>
       </c>
       <c r="J91" s="3"/>
-      <c r="K91" s="22">
+      <c r="K91" s="13">
         <v>49</v>
       </c>
     </row>
@@ -2654,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="19">
+      <c r="K92" s="3">
         <v>50</v>
       </c>
     </row>
@@ -2686,7 +2661,7 @@
       <c r="I93" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="19">
+      <c r="K93" s="3">
         <v>51</v>
       </c>
     </row>
@@ -2697,7 +2672,7 @@
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
-      <c r="K94" s="19"/>
+      <c r="K94" s="3"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2727,7 +2702,7 @@
       <c r="I95" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="19">
+      <c r="K95" s="3">
         <v>52</v>
       </c>
     </row>
@@ -2759,11 +2734,11 @@
       <c r="I96" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="3">
         <v>53</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100</v>
       </c>
@@ -2791,11 +2766,11 @@
       <c r="I97" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K97" s="19">
+      <c r="K97" s="3">
         <v>54</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100</v>
       </c>
@@ -2811,26 +2786,23 @@
       <c r="E98" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="16">
         <v>79</v>
       </c>
-      <c r="G98" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="K98" s="17">
+      <c r="G98" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J98" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K98" s="3">
         <v>55</v>
-      </c>
-      <c r="L98" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E73" workbookViewId="0">
-      <selection activeCell="M85" sqref="M85"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2530,7 +2530,7 @@
       <c r="J89" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="5">
         <v>47</v>
       </c>
     </row>
@@ -2629,7 +2629,7 @@
         <v>28</v>
       </c>
       <c r="J92" s="3"/>
-      <c r="K92" s="3">
+      <c r="K92" s="5">
         <v>50</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
       <c r="J98" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="5">
         <v>55</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="89">
   <si>
     <t>Sample</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>2020 Segmentation</t>
+  </si>
+  <si>
+    <t>ImThera</t>
   </si>
 </sst>
 </file>
@@ -316,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +344,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -354,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -362,8 +383,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -376,6 +395,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T98"/>
+  <dimension ref="A1:T102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,20 +706,20 @@
     <col min="13" max="14" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="18" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="L1" s="18" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-    </row>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
@@ -730,14 +759,15 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
@@ -769,14 +799,15 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
       <c r="B4" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
@@ -807,14 +838,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -849,14 +881,15 @@
       <c r="S5"/>
       <c r="T5"/>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
       <c r="B6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -887,14 +920,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -925,25 +959,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="11"/>
+      <c r="J8" s="9"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="11"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="N8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="14" t="s">
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -974,14 +1010,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
       <c r="B10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="14" t="s">
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1012,14 +1049,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="14" t="s">
+      <c r="C11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="4" t="s">
@@ -1050,14 +1088,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="14" t="s">
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1088,23 +1127,25 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="C13" s="10"/>
-      <c r="D13" s="9"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="4"/>
       <c r="G13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
       <c r="B14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="4" t="s">
@@ -1119,7 +1160,7 @@
       <c r="H14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="11" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="3" t="s">
@@ -1131,16 +1172,17 @@
       <c r="N14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
       <c r="B15" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="14" t="s">
+      <c r="C15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
@@ -1169,14 +1211,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
       <c r="B16" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="14" t="s">
+      <c r="C16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E16" s="4" t="s">
@@ -1205,14 +1248,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="14" t="s">
+      <c r="C17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>13</v>
       </c>
       <c r="E17" s="4" t="s">
@@ -1241,14 +1285,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
       <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="4" t="s">
@@ -1277,9 +1322,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="21"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="4"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
@@ -1289,14 +1335,15 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
       <c r="B20" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
@@ -1325,14 +1372,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="21"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
@@ -1361,14 +1409,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
       <c r="B22" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="14" t="s">
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
@@ -1397,14 +1446,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
       <c r="B23" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="12" t="s">
         <v>18</v>
       </c>
       <c r="E23" s="4" t="s">
@@ -1432,7 +1482,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>35</v>
       </c>
@@ -1449,7 +1499,7 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>35</v>
       </c>
@@ -1466,7 +1516,7 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>35</v>
       </c>
@@ -1484,7 +1534,7 @@
       <c r="H27" s="3"/>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
@@ -1501,7 +1551,7 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>35</v>
       </c>
@@ -1518,10 +1568,10 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>35</v>
       </c>
@@ -1537,7 +1587,7 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>35</v>
       </c>
@@ -1736,7 +1786,7 @@
       <c r="C47" t="s">
         <v>33</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="14" t="s">
         <v>55</v>
       </c>
       <c r="F47">
@@ -1751,10 +1801,10 @@
       <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="E48" s="12"/>
+      <c r="E48" s="10"/>
       <c r="F48">
         <v>37</v>
       </c>
@@ -1767,16 +1817,17 @@
       <c r="C49" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="15"/>
+      <c r="E49" s="13"/>
       <c r="F49">
         <v>38</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="3"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
@@ -1786,10 +1837,10 @@
       <c r="C51" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E51" s="15"/>
+      <c r="E51" s="13"/>
       <c r="F51">
         <v>39</v>
       </c>
@@ -1802,10 +1853,10 @@
       <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="15"/>
+      <c r="E52" s="13"/>
       <c r="F52">
         <v>40</v>
       </c>
@@ -1818,10 +1869,10 @@
       <c r="C53" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E53" s="15"/>
+      <c r="E53" s="13"/>
       <c r="F53">
         <v>41</v>
       </c>
@@ -1834,10 +1885,10 @@
       <c r="C54" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E54" s="15"/>
+      <c r="E54" s="13"/>
       <c r="F54">
         <v>42</v>
       </c>
@@ -1850,10 +1901,10 @@
       <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="E55" s="15"/>
+      <c r="E55" s="13"/>
       <c r="F55">
         <v>43</v>
       </c>
@@ -1866,10 +1917,10 @@
       <c r="C56" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="15"/>
+      <c r="E56" s="13"/>
       <c r="F56">
         <v>44</v>
       </c>
@@ -1882,10 +1933,10 @@
       <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E57" s="15"/>
+      <c r="E57" s="13"/>
       <c r="F57">
         <v>45</v>
       </c>
@@ -1898,10 +1949,10 @@
       <c r="C58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E58" s="15"/>
+      <c r="E58" s="13"/>
       <c r="F58">
         <v>46</v>
       </c>
@@ -1914,16 +1965,17 @@
       <c r="C59" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E59" s="15"/>
+      <c r="E59" s="13"/>
       <c r="F59">
         <v>47</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D60" s="3"/>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.25">
@@ -1933,7 +1985,7 @@
       <c r="C61" t="s">
         <v>34</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="22" t="s">
         <v>67</v>
       </c>
       <c r="F61">
@@ -1948,10 +2000,10 @@
       <c r="C62" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="12"/>
+      <c r="E62" s="10"/>
       <c r="F62">
         <v>49</v>
       </c>
@@ -1964,16 +2016,17 @@
       <c r="C63" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E63" s="12"/>
+      <c r="E63" s="10"/>
       <c r="F63">
         <v>50</v>
       </c>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D64" s="3"/>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -1983,10 +2036,10 @@
       <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="E65" s="15"/>
+      <c r="E65" s="13"/>
       <c r="F65">
         <v>51</v>
       </c>
@@ -1999,10 +2052,10 @@
       <c r="C66" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="E66" s="15"/>
+      <c r="E66" s="13"/>
       <c r="F66">
         <v>52</v>
       </c>
@@ -2015,10 +2068,10 @@
       <c r="C67" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="15"/>
+      <c r="E67" s="13"/>
       <c r="F67">
         <v>53</v>
       </c>
@@ -2031,10 +2084,10 @@
       <c r="C68" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="15"/>
+      <c r="E68" s="13"/>
       <c r="F68">
         <v>54</v>
       </c>
@@ -2047,10 +2100,10 @@
       <c r="C69" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E69" s="15"/>
+      <c r="D69" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E69" s="13"/>
       <c r="F69">
         <v>55</v>
       </c>
@@ -2063,139 +2116,196 @@
       <c r="C70" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E70" s="15"/>
+      <c r="D70" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E70" s="13"/>
       <c r="F70">
         <v>56</v>
       </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B72" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C71" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E71" s="15"/>
-      <c r="F71">
-        <v>57</v>
-      </c>
-      <c r="G71" s="3"/>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
+      <c r="C72" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F72" s="21">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B73" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72">
-        <v>58</v>
-      </c>
-      <c r="G72" s="3"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>54</v>
-      </c>
-      <c r="C73" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73">
-        <v>59</v>
-      </c>
-      <c r="G73" s="3"/>
+      <c r="C73" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F73" s="21">
+        <v>61</v>
+      </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>81</v>
+      <c r="A75">
+        <v>500</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
-      </c>
-      <c r="C75" t="s">
-        <v>33</v>
-      </c>
-      <c r="D75" t="s">
-        <v>82</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F75">
-        <v>60</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F75" s="2">
+        <v>62</v>
+      </c>
+      <c r="G75" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I75" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J75" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K75" s="3">
+        <v>38</v>
+      </c>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>81</v>
+      <c r="A76">
+        <v>100</v>
       </c>
       <c r="B76" t="s">
-        <v>54</v>
-      </c>
-      <c r="C76" t="s">
-        <v>33</v>
-      </c>
-      <c r="D76" t="s">
-        <v>82</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F76">
-        <v>61</v>
+        <v>32</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="2">
+        <v>63</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K76" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F77" s="2">
+        <v>64</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K77" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
         <v>32</v>
       </c>
-      <c r="C78" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D78" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="14" t="s">
+      <c r="C78" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F78" s="16">
-        <v>62</v>
-      </c>
-      <c r="G78" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I78" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J78" s="16" t="s">
+      <c r="F78" s="2">
+        <v>65</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I78" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J78" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K78" s="3">
-        <v>38</v>
-      </c>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
+        <v>41</v>
+      </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -2204,68 +2314,43 @@
       <c r="B79" t="s">
         <v>32</v>
       </c>
-      <c r="C79" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D79" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E79" s="14" t="s">
+      <c r="C79" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F79" s="16">
-        <v>63</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J79" s="16" t="s">
+      <c r="F79" s="2">
+        <v>66</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="J79" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K79" s="3">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>100</v>
-      </c>
-      <c r="B80" t="s">
-        <v>32</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D80" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E80" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F80" s="16">
-        <v>64</v>
-      </c>
-      <c r="G80" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J80" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K80" s="3">
-        <v>40</v>
-      </c>
+      <c r="C80" s="8"/>
+      <c r="D80" s="4"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -2274,33 +2359,34 @@
       <c r="B81" t="s">
         <v>32</v>
       </c>
-      <c r="C81" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D81" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" s="14" t="s">
+      <c r="C81" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F81" s="16">
-        <v>65</v>
-      </c>
-      <c r="G81" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J81" s="16" t="s">
+      <c r="F81" s="2">
+        <v>67</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J81" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K81" s="3">
-        <v>41</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="M81" s="3"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -2309,42 +2395,70 @@
       <c r="B82" t="s">
         <v>32</v>
       </c>
-      <c r="C82" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E82" s="14" t="s">
+      <c r="C82" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F82" s="16">
-        <v>66</v>
-      </c>
-      <c r="G82" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I82" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="J82" s="16" t="s">
+      <c r="F82" s="2">
+        <v>68</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I82" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J82" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K82" s="3">
-        <v>42</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="M82" s="3"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C83" s="10"/>
-      <c r="D83" s="4"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="11"/>
-      <c r="K83" s="3"/>
+      <c r="A83">
+        <v>100</v>
+      </c>
+      <c r="B83" t="s">
+        <v>32</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F83" s="2">
+        <v>69</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I83" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J83" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="K83" s="3">
+        <v>45</v>
+      </c>
+      <c r="M83" s="3"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -2353,106 +2467,78 @@
       <c r="B84" t="s">
         <v>32</v>
       </c>
-      <c r="C84" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="14" t="s">
+      <c r="C84" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E84" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F84" s="16">
-        <v>67</v>
-      </c>
-      <c r="G84" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I84" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J84" s="16" t="s">
+      <c r="F84" s="2">
+        <v>70</v>
+      </c>
+      <c r="G84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J84" s="14" t="s">
         <v>76</v>
       </c>
       <c r="K84" s="3">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M84" s="3"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="C85" s="8"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="G85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
         <v>100</v>
       </c>
-      <c r="B85" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E85" s="14" t="s">
+      <c r="B86" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F85" s="16">
-        <v>68</v>
-      </c>
-      <c r="G85" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I85" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J85" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K85" s="3">
-        <v>44</v>
-      </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>100</v>
-      </c>
-      <c r="B86" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F86" s="16">
-        <v>69</v>
-      </c>
-      <c r="G86" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K86" s="3">
-        <v>45</v>
-      </c>
-      <c r="M86" s="3"/>
+      <c r="F86" s="17">
+        <v>71</v>
+      </c>
+      <c r="G86" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="17">
+        <v>47</v>
+      </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -2461,43 +2547,64 @@
       <c r="B87" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="14" t="s">
+      <c r="C87" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F87" s="16">
-        <v>70</v>
-      </c>
-      <c r="G87" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H87" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I87" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J87" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K87" s="3">
-        <v>46</v>
-      </c>
-      <c r="M87" s="3"/>
+      <c r="F87" s="14">
+        <v>72</v>
+      </c>
+      <c r="G87" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H87" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="K87" s="11">
+        <v>48</v>
+      </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C88" s="10"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="G88" s="3"/>
-      <c r="I88" s="3"/>
+      <c r="A88">
+        <v>100</v>
+      </c>
+      <c r="B88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88" s="14">
+        <v>73</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H88" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="11">
+        <v>49</v>
+      </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2506,32 +2613,30 @@
       <c r="B89" t="s">
         <v>32</v>
       </c>
-      <c r="C89" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="14" t="s">
+      <c r="C89" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F89" s="16">
-        <v>71</v>
-      </c>
-      <c r="G89" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H89" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I89" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J89" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K89" s="5">
-        <v>47</v>
+      <c r="F89" s="14">
+        <v>74</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H89" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3">
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
@@ -2541,64 +2646,39 @@
       <c r="B90" t="s">
         <v>32</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E90" s="14" t="s">
+      <c r="C90" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F90" s="16">
-        <v>72</v>
-      </c>
-      <c r="G90" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H90" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I90" s="16" t="s">
+      <c r="F90" s="14">
+        <v>75</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="13">
-        <v>48</v>
+      <c r="K90" s="3">
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>100</v>
-      </c>
-      <c r="B91" t="s">
-        <v>32</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F91" s="16">
-        <v>73</v>
-      </c>
-      <c r="G91" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H91" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I91" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="13">
-        <v>49</v>
-      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="K91" s="3"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -2607,201 +2687,166 @@
       <c r="B92" t="s">
         <v>32</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E92" s="14" t="s">
+      <c r="C92" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F92" s="16">
-        <v>74</v>
-      </c>
-      <c r="G92" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H92" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I92" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="5">
-        <v>50</v>
+      <c r="F92" s="14">
+        <v>76</v>
+      </c>
+      <c r="G92" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I92" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K92" s="3">
+        <v>52</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93">
+        <v>10</v>
+      </c>
+      <c r="B93" t="s">
+        <v>32</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F93" s="14">
+        <v>77</v>
+      </c>
+      <c r="G93" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K93" s="3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A94">
         <v>100</v>
       </c>
-      <c r="B93" t="s">
-        <v>32</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="14" t="s">
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F93" s="16">
-        <v>75</v>
-      </c>
-      <c r="G93" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H93" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I93" s="16" t="s">
+      <c r="F94" s="14">
+        <v>78</v>
+      </c>
+      <c r="G94" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K93" s="3">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C94" s="10"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="K94" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="17">
         <v>100</v>
       </c>
-      <c r="B95" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E95" s="14" t="s">
+      <c r="B95" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="16">
-        <v>76</v>
-      </c>
-      <c r="G95" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="K95" s="3">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>10</v>
-      </c>
-      <c r="B96" t="s">
-        <v>32</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F96" s="16">
-        <v>77</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H96" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I96" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K96" s="3">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>100</v>
+      <c r="F95" s="17">
+        <v>79</v>
+      </c>
+      <c r="G95" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="K95" s="17">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D97" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F97" s="16">
-        <v>78</v>
-      </c>
-      <c r="G97" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H97" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I97" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K97" s="3">
         <v>54</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>100</v>
-      </c>
-      <c r="B98" t="s">
-        <v>32</v>
-      </c>
-      <c r="C98" t="s">
-        <v>34</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E98" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="F98" s="16">
-        <v>79</v>
-      </c>
-      <c r="G98" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I98" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="J98" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="K98" s="5">
+      <c r="C97" t="s">
+        <v>33</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F97" s="15">
+        <v>80</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>38</v>
+      </c>
+      <c r="E101" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>47</v>
+      </c>
+      <c r="E102" s="3">
         <v>55</v>
       </c>
     </row>

--- a/master_index_key.xlsx
+++ b/master_index_key.xlsx
@@ -392,9 +392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -405,6 +402,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T102"/>
+  <dimension ref="A1:T103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F98" sqref="F98"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,17 +707,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="L1" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -760,7 +760,7 @@
       <c r="Q2" s="1"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
+      <c r="A3" s="20"/>
       <c r="B3" t="s">
         <v>32</v>
       </c>
@@ -800,7 +800,7 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="A4" s="20"/>
       <c r="B4" t="s">
         <v>32</v>
       </c>
@@ -839,7 +839,7 @@
       </c>
     </row>
     <row r="5" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="A5" s="20"/>
       <c r="B5" t="s">
         <v>32</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="T5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="A6" s="20"/>
       <c r="B6" t="s">
         <v>32</v>
       </c>
@@ -921,7 +921,7 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
+      <c r="A7" s="20"/>
       <c r="B7" t="s">
         <v>32</v>
       </c>
@@ -960,7 +960,7 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="20"/>
       <c r="C8" s="8"/>
       <c r="D8" s="7"/>
       <c r="G8" s="3"/>
@@ -972,7 +972,7 @@
       <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+      <c r="A9" s="20"/>
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1011,7 +1011,7 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="20"/>
       <c r="B10" t="s">
         <v>32</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+      <c r="A11" s="20"/>
       <c r="B11" t="s">
         <v>32</v>
       </c>
@@ -1089,7 +1089,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+      <c r="A12" s="20"/>
       <c r="B12" t="s">
         <v>32</v>
       </c>
@@ -1128,7 +1128,7 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+      <c r="A13" s="20"/>
       <c r="C13" s="8"/>
       <c r="D13" s="7"/>
       <c r="E13" s="4"/>
@@ -1138,7 +1138,7 @@
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+      <c r="A14" s="20"/>
       <c r="B14" t="s">
         <v>32</v>
       </c>
@@ -1175,7 +1175,7 @@
       <c r="P14" s="10"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="20"/>
       <c r="B15" t="s">
         <v>32</v>
       </c>
@@ -1212,7 +1212,7 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="20"/>
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -1249,7 +1249,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+      <c r="A17" s="20"/>
       <c r="B17" t="s">
         <v>32</v>
       </c>
@@ -1286,7 +1286,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="A18" s="20"/>
       <c r="B18" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1323,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
+      <c r="A19" s="20"/>
       <c r="C19" s="8"/>
       <c r="D19" s="7"/>
       <c r="E19" s="4"/>
@@ -1336,7 +1336,7 @@
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>32</v>
       </c>
@@ -1373,7 +1373,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="A21" s="20"/>
       <c r="B21" t="s">
         <v>32</v>
       </c>
@@ -1410,7 +1410,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="A22" s="20"/>
       <c r="B22" t="s">
         <v>32</v>
       </c>
@@ -1447,7 +1447,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
+      <c r="A23" s="20"/>
       <c r="B23" t="s">
         <v>32</v>
       </c>
@@ -1801,7 +1801,7 @@
       <c r="C48" t="s">
         <v>33</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>56</v>
       </c>
       <c r="E48" s="10"/>
@@ -1817,7 +1817,7 @@
       <c r="C49" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D49" s="25" t="s">
         <v>57</v>
       </c>
       <c r="E49" s="13"/>
@@ -1837,7 +1837,7 @@
       <c r="C51" t="s">
         <v>33</v>
       </c>
-      <c r="D51" s="26" t="s">
+      <c r="D51" s="25" t="s">
         <v>58</v>
       </c>
       <c r="E51" s="13"/>
@@ -1853,7 +1853,7 @@
       <c r="C52" t="s">
         <v>33</v>
       </c>
-      <c r="D52" s="26" t="s">
+      <c r="D52" s="25" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="13"/>
@@ -1869,7 +1869,7 @@
       <c r="C53" t="s">
         <v>33</v>
       </c>
-      <c r="D53" s="26" t="s">
+      <c r="D53" s="25" t="s">
         <v>60</v>
       </c>
       <c r="E53" s="13"/>
@@ -1885,7 +1885,7 @@
       <c r="C54" t="s">
         <v>33</v>
       </c>
-      <c r="D54" s="26" t="s">
+      <c r="D54" s="25" t="s">
         <v>61</v>
       </c>
       <c r="E54" s="13"/>
@@ -1901,7 +1901,7 @@
       <c r="C55" t="s">
         <v>33</v>
       </c>
-      <c r="D55" s="26" t="s">
+      <c r="D55" s="25" t="s">
         <v>62</v>
       </c>
       <c r="E55" s="13"/>
@@ -1917,7 +1917,7 @@
       <c r="C56" t="s">
         <v>33</v>
       </c>
-      <c r="D56" s="26" t="s">
+      <c r="D56" s="25" t="s">
         <v>63</v>
       </c>
       <c r="E56" s="13"/>
@@ -1933,7 +1933,7 @@
       <c r="C57" t="s">
         <v>33</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="25" t="s">
         <v>64</v>
       </c>
       <c r="E57" s="13"/>
@@ -1949,7 +1949,7 @@
       <c r="C58" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D58" s="25" t="s">
         <v>65</v>
       </c>
       <c r="E58" s="13"/>
@@ -1965,7 +1965,7 @@
       <c r="C59" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D59" s="25" t="s">
         <v>66</v>
       </c>
       <c r="E59" s="13"/>
@@ -1985,7 +1985,7 @@
       <c r="C61" t="s">
         <v>34</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="21" t="s">
         <v>67</v>
       </c>
       <c r="F61">
@@ -2000,7 +2000,7 @@
       <c r="C62" t="s">
         <v>34</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D62" s="22" t="s">
         <v>68</v>
       </c>
       <c r="E62" s="10"/>
@@ -2016,7 +2016,7 @@
       <c r="C63" t="s">
         <v>34</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="22" t="s">
         <v>69</v>
       </c>
       <c r="E63" s="10"/>
@@ -2036,7 +2036,7 @@
       <c r="C65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D65" s="23" t="s">
         <v>70</v>
       </c>
       <c r="E65" s="13"/>
@@ -2052,7 +2052,7 @@
       <c r="C66" t="s">
         <v>34</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D66" s="23" t="s">
         <v>71</v>
       </c>
       <c r="E66" s="13"/>
@@ -2068,7 +2068,7 @@
       <c r="C67" t="s">
         <v>34</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="23" t="s">
         <v>72</v>
       </c>
       <c r="E67" s="13"/>
@@ -2084,7 +2084,7 @@
       <c r="C68" t="s">
         <v>34</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D68" s="23" t="s">
         <v>73</v>
       </c>
       <c r="E68" s="13"/>
@@ -2100,7 +2100,7 @@
       <c r="C69" t="s">
         <v>34</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D69" s="23" t="s">
         <v>74</v>
       </c>
       <c r="E69" s="13"/>
@@ -2116,7 +2116,7 @@
       <c r="C70" t="s">
         <v>34</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D70" s="23" t="s">
         <v>75</v>
       </c>
       <c r="E70" s="13"/>
@@ -2126,42 +2126,42 @@
       <c r="G70" s="3"/>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B72" s="21" t="s">
+      <c r="B72" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C72" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D72" s="21" t="s">
+      <c r="C72" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D72" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E72" s="21" t="s">
+      <c r="E72" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="20">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D73" s="21" t="s">
+      <c r="C73" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="21" t="s">
+      <c r="E73" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="F73" s="21">
+      <c r="F73" s="20">
         <v>61</v>
       </c>
     </row>
@@ -2505,38 +2505,38 @@
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="17">
+    <row r="86" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
         <v>100</v>
       </c>
-      <c r="B86" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D86" s="19" t="s">
+      <c r="B86" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D86" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E86" s="19" t="s">
+      <c r="E86" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <v>71</v>
       </c>
-      <c r="G86" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I86" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J86" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K86" s="17">
+      <c r="G86" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K86" s="16">
         <v>47</v>
       </c>
     </row>
@@ -2776,38 +2776,38 @@
         <v>54</v>
       </c>
     </row>
-    <row r="95" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="17">
+    <row r="95" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
         <v>100</v>
       </c>
-      <c r="B95" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C95" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D95" s="19" t="s">
+      <c r="B95" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D95" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="19" t="s">
+      <c r="E95" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="16">
         <v>79</v>
       </c>
-      <c r="G95" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H95" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I95" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J95" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="K95" s="17">
+      <c r="G95" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="K95" s="16">
         <v>55</v>
       </c>
     </row>
@@ -2835,19 +2835,24 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D101">
+      <c r="D101" s="5">
         <v>38</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E101" s="5">
         <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D102">
+      <c r="D102" s="5">
         <v>47</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E102" s="5">
         <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E103" s="5">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
